--- a/backend/data/export.xlsx
+++ b/backend/data/export.xlsx
@@ -17091,7 +17091,24 @@
       <c r="H5" s="6" t="n"/>
       <c r="I5" s="6" t="n"/>
       <c r="J5" s="6" t="n"/>
-      <c r="K5" s="6" t="n"/>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Стат РФ
+</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="1"/>
+            </rPr>
+            <t xml:space="preserve">ЛК
+</t>
+          </r>
+          <r>
+            <t>Хейдоров И. Э.</t>
+          </r>
+        </is>
+      </c>
       <c r="L5" s="6" t="n"/>
       <c r="M5" s="6" t="n"/>
       <c r="N5" s="6" t="n"/>
@@ -17225,7 +17242,24 @@
       </c>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
-      <c r="F10" s="6" t="n"/>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Стат РФ
+</t>
+          </r>
+          <r>
+            <rPr>
+              <b val="1"/>
+            </rPr>
+            <t xml:space="preserve">ЛК
+</t>
+          </r>
+          <r>
+            <t>Хейдоров И. Э.</t>
+          </r>
+        </is>
+      </c>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
       <c r="I10" s="6" t="n"/>

--- a/backend/data/export.xlsx
+++ b/backend/data/export.xlsx
@@ -17091,24 +17091,7 @@
       <c r="H5" s="6" t="n"/>
       <c r="I5" s="6" t="n"/>
       <c r="J5" s="6" t="n"/>
-      <c r="K5" s="7" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Стат РФ
-</t>
-          </r>
-          <r>
-            <rPr>
-              <b val="1"/>
-            </rPr>
-            <t xml:space="preserve">ЛК
-</t>
-          </r>
-          <r>
-            <t>Хейдоров И. Э.</t>
-          </r>
-        </is>
-      </c>
+      <c r="K5" s="6" t="n"/>
       <c r="L5" s="6" t="n"/>
       <c r="M5" s="6" t="n"/>
       <c r="N5" s="6" t="n"/>
@@ -17242,24 +17225,7 @@
       </c>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Стат РФ
-</t>
-          </r>
-          <r>
-            <rPr>
-              <b val="1"/>
-            </rPr>
-            <t xml:space="preserve">ЛК
-</t>
-          </r>
-          <r>
-            <t>Хейдоров И. Э.</t>
-          </r>
-        </is>
-      </c>
+      <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
       <c r="I10" s="6" t="n"/>
